--- a/biology/Médecine/Articulation_transverse_du_tarse/Articulation_transverse_du_tarse.xlsx
+++ b/biology/Médecine/Articulation_transverse_du_tarse/Articulation_transverse_du_tarse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation transverse du tarse (ou articulation médiotarsienne ou articulation de Chopart) est l'articulation qui joint les os du tarse antérieur aux os du tarse postérieur.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'articulation transverse du tarse est constituée de l'articulation talo-calcanéo-naviculaire en dedans et de l'articulation calcanéo-cuboïdienne en dehors. Ces deux articulations ne partagent pas la même capsule et membrane synoviale, mais restent solidarisées par le ligament bifurqué composé de deux faisceaux:
 le ligament calcanéo-naviculaire,
@@ -543,10 +557,12 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'articulation transverse du tarse et l'articulation subtalaire participent aux mouvements de torsion du pied en dedans et en dehors[1].
-Cette articulation sert à adapter le pied au sol lors des appuis[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'articulation transverse du tarse et l'articulation subtalaire participent aux mouvements de torsion du pied en dedans et en dehors.
+Cette articulation sert à adapter le pied au sol lors des appuis.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Historiquement, c'est sur cette ligne que se réalise la technique d'amputation mise en place par François Chopart. 
-Cette articulation peut être sujette à des entorses bénignes [3].
+Cette articulation peut être sujette à des entorses bénignes .
 </t>
         </is>
       </c>
